--- a/regression comparison.xlsx
+++ b/regression comparison.xlsx
@@ -2,20 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Documents/40.012 mso/msoproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1587798D-F8C6-6947-91ED-8FECC34B2AF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2687F2-B044-AE4A-9701-96BFA408717D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{A1CCFB3B-F7A9-554D-861D-E0527B1206A6}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" activeTab="1" xr2:uid="{A1CCFB3B-F7A9-554D-861D-E0527B1206A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="mso_2019_data" localSheetId="1">Sheet2!$A$1:$C$97</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,8 +37,23 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{E9594F75-8762-B544-85C9-0E510BBF9E30}" name="mso_2019_data" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/sharan/Documents/40.012 mso/msoproject/mso_2019_data.csv" tab="0" comma="1">
+      <textFields count="4">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>Regression Formula</t>
   </si>
@@ -40,12 +62,6 @@
   </si>
   <si>
     <t>AIC</t>
-  </si>
-  <si>
-    <t>Homoscedastic</t>
-  </si>
-  <si>
-    <t>Homogeneity of Variances</t>
   </si>
   <si>
     <t>orders ~ country + order_date</t>
@@ -70,6 +86,57 @@
   </si>
   <si>
     <t>VIF&lt;10</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>sum(orders)</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of sum(orders)</t>
+  </si>
+  <si>
+    <t>Linearity of Results</t>
+  </si>
+  <si>
+    <t>Homoscedasticity (No,Yes,Mostly)</t>
+  </si>
+  <si>
+    <t>Mostly</t>
   </si>
 </sst>
 </file>
@@ -105,13 +172,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -124,6 +206,684 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Student - Sharan Sunil Pillai" refreshedDate="43573.764953703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96" xr:uid="{8767752F-C2A0-CE47-B1C6-70BEAFA463A5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C97" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="country" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Bangladesh"/>
+        <s v="Hong Kong"/>
+        <s v="Malaysia"/>
+        <s v="Pakistan"/>
+        <s v="Philippines"/>
+        <s v="Singapore"/>
+        <s v="Taiwan"/>
+        <s v="Thailand"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="sum(orders)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="200121" maxValue="1108789.9663267401"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="96">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="202123"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="258163"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="442126"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="451388"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="321448"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="494936"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="423593"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="301745"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="200121"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="239586"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="453354"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="410699"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="309087"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="472217"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="349792"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="291570"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="248705"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="284707"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="563810"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="474931"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="356166"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="554230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="481858"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="379421"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="343345.77869815001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="428121.83343297098"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="776234.51594302501"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="792327.12837137398"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="564529.80411954399"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="916028.55388690997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="602170.02254465397"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="546541.89801238605"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="375072.25222119299"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="478876.97692337399"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="826745.98581679899"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="847783.07380034903"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="616880.61711739202"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="990799.13299485506"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="669474.13392124604"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="592868.61843656504"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="372221.19136678003"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="482677.77030421398"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="819161.65722528601"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="858472.12672045198"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="615193.76075175696"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="972126.41302278498"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="694966.67800555204"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="587497.21724083298"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="406609.80312421301"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="514368.92077977001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="897941.00168842496"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="905462.84084886301"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="638500.59469544597"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="1014200.9830430601"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="767743.78780853504"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="625561.02258878294"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="415535.22933167103"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="530763.95392190397"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="951130.28586517705"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="922219.622898128"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="659668.51201239601"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="1073018.27043037"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="807451.72650511505"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="628706.81432227895"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="413676.52700582298"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="516919.08554430102"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="919717.36986559397"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="896960.91209562705"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="662737.29899596004"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="1053578.8037379701"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="843305.55919438903"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <n v="627323.76433976204"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="445589.49182926101"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="549676.02572450798"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="971081.53977416095"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="933377.35982040595"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="699307.82324570301"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="1092270.9778827"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="876396.77560704702"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="663443.04487650201"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="448901.134974594"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="553863.52892182604"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="956409.50050474901"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="922251.46357852803"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="686130.37718486995"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="1084803.63599231"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="892671.03795946797"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="661933.78286399797"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="484851.93411242199"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="584269.80278299504"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="1037272.16791471"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="974764.40588818199"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="730908.86696269095"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="1108789.9663267401"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="1002616.72151274"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="7"/>
+    <n v="694568.53878268495"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{652731E9-5C9A-A349-9727-F321DCEDD636}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F3:N16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sum(orders)" fld="2" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="9">
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="mso_2019_data" connectionId="1" xr16:uid="{53C0AB8A-706B-0246-B426-2BB1C97F0AAD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA54E07-EED2-A94B-8E7F-A89F6A701DE2}" name="Table1" displayName="Table1" ref="A2:G6" totalsRowShown="0">
   <autoFilter ref="A2:G6" xr:uid="{7DDFE481-28CC-7442-BD5A-52E45E4E957F}"/>
@@ -132,8 +892,8 @@
     <tableColumn id="2" xr3:uid="{5D84D652-CF9C-E24F-AC48-9DC74FB9CCDA}" name="Regression Formula"/>
     <tableColumn id="3" xr3:uid="{47E13538-306C-1942-95B3-56A2961336EB}" name="R-Squared Value"/>
     <tableColumn id="4" xr3:uid="{9B7E444D-0A67-584E-9794-27DF4345695F}" name="AIC"/>
-    <tableColumn id="5" xr3:uid="{DFF6B948-B957-3645-9D1F-27F90B365A6A}" name="Homoscedastic"/>
-    <tableColumn id="6" xr3:uid="{F575B771-FDF4-F54A-AC89-9377E8998E60}" name="Homogeneity of Variances"/>
+    <tableColumn id="5" xr3:uid="{DFF6B948-B957-3645-9D1F-27F90B365A6A}" name="Homoscedasticity (No,Yes,Mostly)"/>
+    <tableColumn id="6" xr3:uid="{F575B771-FDF4-F54A-AC89-9377E8998E60}" name="Linearity of Results"/>
     <tableColumn id="7" xr3:uid="{7B7246BF-9988-4245-A7BC-9AA20EEA9DB4}" name="VIF&lt;10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -439,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900ACB72-19AC-454B-8167-3B444A344CC4}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -449,13 +1209,13 @@
     <col min="2" max="2" width="70.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -467,13 +1227,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -481,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0.88270000000000004</v>
@@ -490,13 +1250,13 @@
         <v>50104.144999999997</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -504,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.9264</v>
@@ -513,13 +1273,13 @@
         <v>48747.387000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -527,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0.9133</v>
@@ -536,13 +1296,13 @@
         <v>-4328.8720000000003</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -550,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0.95830000000000004</v>
@@ -559,13 +1319,13 @@
         <v>47104.821000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -574,4 +1334,1452 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48D7115-9446-FC41-A239-F1CCB9181780}">
+  <dimension ref="A1:N97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>202123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>258163</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>442126</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>451388</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>202123</v>
+      </c>
+      <c r="H5" s="3">
+        <v>258163</v>
+      </c>
+      <c r="I5" s="3">
+        <v>442126</v>
+      </c>
+      <c r="J5" s="3">
+        <v>451388</v>
+      </c>
+      <c r="K5" s="3">
+        <v>321448</v>
+      </c>
+      <c r="L5" s="3">
+        <v>494936</v>
+      </c>
+      <c r="M5" s="3">
+        <v>423593</v>
+      </c>
+      <c r="N5" s="3">
+        <v>301745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>321448</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>200121</v>
+      </c>
+      <c r="H6" s="3">
+        <v>239586</v>
+      </c>
+      <c r="I6" s="3">
+        <v>453354</v>
+      </c>
+      <c r="J6" s="3">
+        <v>410699</v>
+      </c>
+      <c r="K6" s="3">
+        <v>309087</v>
+      </c>
+      <c r="L6" s="3">
+        <v>472217</v>
+      </c>
+      <c r="M6" s="3">
+        <v>349792</v>
+      </c>
+      <c r="N6" s="3">
+        <v>291570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>494936</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>248705</v>
+      </c>
+      <c r="H7" s="3">
+        <v>284707</v>
+      </c>
+      <c r="I7" s="3">
+        <v>563810</v>
+      </c>
+      <c r="J7" s="3">
+        <v>474931</v>
+      </c>
+      <c r="K7" s="3">
+        <v>356166</v>
+      </c>
+      <c r="L7" s="3">
+        <v>554230</v>
+      </c>
+      <c r="M7" s="3">
+        <v>481858</v>
+      </c>
+      <c r="N7" s="3">
+        <v>379421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>423593</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>343345.77869815001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>428121.83343297098</v>
+      </c>
+      <c r="I8" s="3">
+        <v>776234.51594302501</v>
+      </c>
+      <c r="J8" s="3">
+        <v>792327.12837137398</v>
+      </c>
+      <c r="K8" s="3">
+        <v>564529.80411954399</v>
+      </c>
+      <c r="L8" s="3">
+        <v>916028.55388690997</v>
+      </c>
+      <c r="M8" s="3">
+        <v>602170.02254465397</v>
+      </c>
+      <c r="N8" s="3">
+        <v>546541.89801238605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>301745</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>375072.25222119299</v>
+      </c>
+      <c r="H9" s="3">
+        <v>478876.97692337399</v>
+      </c>
+      <c r="I9" s="3">
+        <v>826745.98581679899</v>
+      </c>
+      <c r="J9" s="3">
+        <v>847783.07380034903</v>
+      </c>
+      <c r="K9" s="3">
+        <v>616880.61711739202</v>
+      </c>
+      <c r="L9" s="3">
+        <v>990799.13299485506</v>
+      </c>
+      <c r="M9" s="3">
+        <v>669474.13392124604</v>
+      </c>
+      <c r="N9" s="3">
+        <v>592868.61843656504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>200121</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>372221.19136678003</v>
+      </c>
+      <c r="H10" s="3">
+        <v>482677.77030421398</v>
+      </c>
+      <c r="I10" s="3">
+        <v>819161.65722528601</v>
+      </c>
+      <c r="J10" s="3">
+        <v>858472.12672045198</v>
+      </c>
+      <c r="K10" s="3">
+        <v>615193.76075175696</v>
+      </c>
+      <c r="L10" s="3">
+        <v>972126.41302278498</v>
+      </c>
+      <c r="M10" s="3">
+        <v>694966.67800555204</v>
+      </c>
+      <c r="N10" s="3">
+        <v>587497.21724083298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>239586</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>406609.80312421301</v>
+      </c>
+      <c r="H11" s="3">
+        <v>514368.92077977001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>897941.00168842496</v>
+      </c>
+      <c r="J11" s="3">
+        <v>905462.84084886301</v>
+      </c>
+      <c r="K11" s="3">
+        <v>638500.59469544597</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1014200.9830430601</v>
+      </c>
+      <c r="M11" s="3">
+        <v>767743.78780853504</v>
+      </c>
+      <c r="N11" s="3">
+        <v>625561.02258878294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>453354</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>415535.22933167103</v>
+      </c>
+      <c r="H12" s="3">
+        <v>530763.95392190397</v>
+      </c>
+      <c r="I12" s="3">
+        <v>951130.28586517705</v>
+      </c>
+      <c r="J12" s="3">
+        <v>922219.622898128</v>
+      </c>
+      <c r="K12" s="3">
+        <v>659668.51201239601</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1073018.27043037</v>
+      </c>
+      <c r="M12" s="3">
+        <v>807451.72650511505</v>
+      </c>
+      <c r="N12" s="3">
+        <v>628706.81432227895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>410699</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>413676.52700582298</v>
+      </c>
+      <c r="H13" s="3">
+        <v>516919.08554430102</v>
+      </c>
+      <c r="I13" s="3">
+        <v>919717.36986559397</v>
+      </c>
+      <c r="J13" s="3">
+        <v>896960.91209562705</v>
+      </c>
+      <c r="K13" s="3">
+        <v>662737.29899596004</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1053578.8037379701</v>
+      </c>
+      <c r="M13" s="3">
+        <v>843305.55919438903</v>
+      </c>
+      <c r="N13" s="3">
+        <v>627323.76433976204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>309087</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>445589.49182926101</v>
+      </c>
+      <c r="H14" s="3">
+        <v>549676.02572450798</v>
+      </c>
+      <c r="I14" s="3">
+        <v>971081.53977416095</v>
+      </c>
+      <c r="J14" s="3">
+        <v>933377.35982040595</v>
+      </c>
+      <c r="K14" s="3">
+        <v>699307.82324570301</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1092270.9778827</v>
+      </c>
+      <c r="M14" s="3">
+        <v>876396.77560704702</v>
+      </c>
+      <c r="N14" s="3">
+        <v>663443.04487650201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>472217</v>
+      </c>
+      <c r="F15" s="2">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>448901.134974594</v>
+      </c>
+      <c r="H15" s="3">
+        <v>553863.52892182604</v>
+      </c>
+      <c r="I15" s="3">
+        <v>956409.50050474901</v>
+      </c>
+      <c r="J15" s="3">
+        <v>922251.46357852803</v>
+      </c>
+      <c r="K15" s="3">
+        <v>686130.37718486995</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1084803.63599231</v>
+      </c>
+      <c r="M15" s="3">
+        <v>892671.03795946797</v>
+      </c>
+      <c r="N15" s="3">
+        <v>661933.78286399797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>349792</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>484851.93411242199</v>
+      </c>
+      <c r="H16" s="3">
+        <v>584269.80278299504</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1037272.16791471</v>
+      </c>
+      <c r="J16" s="3">
+        <v>974764.40588818199</v>
+      </c>
+      <c r="K16" s="3">
+        <v>730908.86696269095</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1108789.9663267401</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1002616.72151274</v>
+      </c>
+      <c r="N16" s="3">
+        <v>694568.53878268495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>291570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>248705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>284707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>563810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>474931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>356166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>554230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>481858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>379421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>343345.77869815001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>428121.83343297098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>776234.51594302501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>792327.12837137398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>564529.80411954399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>916028.55388690997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>602170.02254465397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>546541.89801238605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>375072.25222119299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>478876.97692337399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>826745.98581679899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>847783.07380034903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>616880.61711739202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>990799.13299485506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>669474.13392124604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>592868.61843656504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>372221.19136678003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>482677.77030421398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>819161.65722528601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>858472.12672045198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>615193.76075175696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>972126.41302278498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>694966.67800555204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>587497.21724083298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>406609.80312421301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>514368.92077977001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>897941.00168842496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>905462.84084886301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>638500.59469544597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>1014200.9830430601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>767743.78780853504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>625561.02258878294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>415535.22933167103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>530763.95392190397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>951130.28586517705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>922219.622898128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>659668.51201239601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>1073018.27043037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>807451.72650511505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>628706.81432227895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>413676.52700582298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>516919.08554430102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>919717.36986559397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>896960.91209562705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>662737.29899596004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>1053578.8037379701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>843305.55919438903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>627323.76433976204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>445589.49182926101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>549676.02572450798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>971081.53977416095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>933377.35982040595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>699307.82324570301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>1092270.9778827</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>876396.77560704702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>663443.04487650201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>448901.134974594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>553863.52892182604</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>956409.50050474901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>922251.46357852803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>686130.37718486995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>1084803.63599231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>892671.03795946797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>661933.78286399797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>484851.93411242199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>584269.80278299504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>1037272.16791471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>974764.40588818199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>730908.86696269095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>1108789.9663267401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>1002616.72151274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97">
+        <v>694568.53878268495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/regression comparison.xlsx
+++ b/regression comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Documents/40.012 mso/msoproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2687F2-B044-AE4A-9701-96BFA408717D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F2325-029C-F541-A7C5-A862BA374389}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" activeTab="1" xr2:uid="{A1CCFB3B-F7A9-554D-861D-E0527B1206A6}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{A1CCFB3B-F7A9-554D-861D-E0527B1206A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{E9594F75-8762-B544-85C9-0E510BBF9E30}" name="mso_2019_data" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/sharan/Documents/40.012 mso/msoproject/mso_2019_data.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/sharan/Documents/40.012 mso/msoproject/mso_2019_data.csv" tab="0" comma="1">
       <textFields count="4">
         <textField type="skip"/>
         <textField/>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,10 +183,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -738,7 +735,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{652731E9-5C9A-A349-9727-F321DCEDD636}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{652731E9-5C9A-A349-9727-F321DCEDD636}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:N16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -847,7 +844,7 @@
     <dataField name="Sum of sum(orders)" fld="2" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="9">
@@ -1199,21 +1196,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900ACB72-19AC-454B-8167-3B444A344CC4}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1340,11 +1337,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48D7115-9446-FC41-A239-F1CCB9181780}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -1354,7 +1351,7 @@
     <col min="8" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>202123</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1469,7 +1466,7 @@
         <v>301745</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1507,7 +1504,7 @@
         <v>291570</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1545,7 +1542,7 @@
         <v>379421</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>546541.89801238605</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>592868.61843656504</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>587497.21724083298</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>625561.02258878294</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>628706.81432227895</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1773,7 +1770,7 @@
         <v>627323.76433976204</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>663443.04487650201</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1849,7 +1846,7 @@
         <v>661933.78286399797</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1887,7 +1884,7 @@
         <v>694568.53878268495</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>291570</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>248705</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>284707</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1931,7 +1928,7 @@
         <v>563810</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1942,7 +1939,7 @@
         <v>474931</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>356166</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1964,7 +1961,7 @@
         <v>554230</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>481858</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>379421</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>343345.77869815001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2008,7 +2005,7 @@
         <v>428121.83343297098</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>776234.51594302501</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>792327.12837137398</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>564529.80411954399</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>916028.55388690997</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2063,7 +2060,7 @@
         <v>602170.02254465397</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>546541.89801238605</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>375072.25222119299</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2096,7 +2093,7 @@
         <v>478876.97692337399</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>826745.98581679899</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>847783.07380034903</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>616880.61711739202</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2140,7 +2137,7 @@
         <v>990799.13299485506</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2151,7 +2148,7 @@
         <v>669474.13392124604</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>592868.61843656504</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>372221.19136678003</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2184,7 +2181,7 @@
         <v>482677.77030421398</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>819161.65722528601</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>6</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>858472.12672045198</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2217,7 +2214,7 @@
         <v>615193.76075175696</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>972126.41302278498</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>694966.67800555204</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>587497.21724083298</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>406609.80312421301</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
@@ -2272,7 +2269,7 @@
         <v>514368.92077977001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>897941.00168842496</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>905462.84084886301</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>638500.59469544597</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>1014200.9830430601</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2327,7 +2324,7 @@
         <v>767743.78780853504</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2338,7 +2335,7 @@
         <v>625561.02258878294</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
@@ -2349,7 +2346,7 @@
         <v>415535.22933167103</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>530763.95392190397</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2371,7 +2368,7 @@
         <v>951130.28586517705</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -2382,7 +2379,7 @@
         <v>922219.622898128</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>659668.51201239601</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>1073018.27043037</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>807451.72650511505</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>628706.81432227895</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>9</v>
       </c>
@@ -2437,7 +2434,7 @@
         <v>413676.52700582298</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>9</v>
       </c>
@@ -2448,7 +2445,7 @@
         <v>516919.08554430102</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>919717.36986559397</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>896960.91209562705</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9</v>
       </c>
@@ -2481,7 +2478,7 @@
         <v>662737.29899596004</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>9</v>
       </c>
@@ -2492,7 +2489,7 @@
         <v>1053578.8037379701</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>843305.55919438903</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>9</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>627323.76433976204</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>445589.49182926101</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10</v>
       </c>
@@ -2536,7 +2533,7 @@
         <v>549676.02572450798</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>971081.53977416095</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>933377.35982040595</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>699307.82324570301</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>1092270.9778827</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10</v>
       </c>
@@ -2591,7 +2588,7 @@
         <v>876396.77560704702</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>663443.04487650201</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>11</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>448901.134974594</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>11</v>
       </c>
@@ -2624,7 +2621,7 @@
         <v>553863.52892182604</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>11</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>956409.50050474901</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>11</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>922251.46357852803</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2657,7 +2654,7 @@
         <v>686130.37718486995</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>11</v>
       </c>
@@ -2668,7 +2665,7 @@
         <v>1084803.63599231</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>11</v>
       </c>
@@ -2679,7 +2676,7 @@
         <v>892671.03795946797</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>11</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>661933.78286399797</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>12</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>484851.93411242199</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>12</v>
       </c>
@@ -2712,7 +2709,7 @@
         <v>584269.80278299504</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>12</v>
       </c>
@@ -2723,7 +2720,7 @@
         <v>1037272.16791471</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>12</v>
       </c>
@@ -2734,7 +2731,7 @@
         <v>974764.40588818199</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12</v>
       </c>
@@ -2745,7 +2742,7 @@
         <v>730908.86696269095</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>12</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>1108789.9663267401</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>12</v>
       </c>
@@ -2767,7 +2764,7 @@
         <v>1002616.72151274</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>12</v>
       </c>
